--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D5F429-D50D-4947-93CF-8392EC1D9669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0076B3-D215-4B0E-AE36-9408443A61B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40245" yWindow="2805" windowWidth="16110" windowHeight="12360" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="XMasCollection" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -729,7 +729,7 @@
         <v>17</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -755,7 +755,7 @@
         <v>22</v>
       </c>
       <c r="H11">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0076B3-D215-4B0E-AE36-9408443A61B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0696D75-63F4-409F-995E-A62B0A28ACA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,27 +103,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xMas_ex_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xMas_ex_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xMas_ex_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xMas_ex_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>도깨비불</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xMas_ex_4</t>
+    <t>ny_ex_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ny_ex_1</t>
+  </si>
+  <si>
+    <t>ny_ex_2</t>
+  </si>
+  <si>
+    <t>ny_ex_3</t>
+  </si>
+  <si>
+    <t>ny_ex_4</t>
+  </si>
+  <si>
+    <t>수미꽃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +491,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -647,12 +647,6 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -674,10 +668,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -688,7 +682,7 @@
         <v>73</v>
       </c>
       <c r="C9">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -700,10 +694,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -714,7 +708,7 @@
         <v>88</v>
       </c>
       <c r="C10">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -726,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -740,19 +734,19 @@
         <v>9001</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>300</v>
@@ -763,7 +757,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1273</v>
+        <v>8602</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -772,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -780,16 +774,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1274</v>
+        <v>9008</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
       <c r="F13">
-        <v>150</v>
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/XMasCollection.xlsx
+++ b/Assets/06.Table/XMasCollection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0696D75-63F4-409F-995E-A62B0A28ACA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB6DD30-9C42-4AC2-9C5F-D188A4B39112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="XMasCollection" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,10 +120,52 @@
     <t>ny_ex_3</t>
   </si>
   <si>
+    <t>수미꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em_0_0</t>
+  </si>
+  <si>
+    <t>em_0_1</t>
+  </si>
+  <si>
+    <t>em_0_2</t>
+  </si>
+  <si>
+    <t>em_0_3</t>
+  </si>
+  <si>
+    <t>em_0_4</t>
+  </si>
+  <si>
+    <t>lastexchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommonTableEventType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DdukGuk</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>영혼석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ny_ex_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ny_ex_4</t>
-  </si>
-  <si>
-    <t>수미꽃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,13 +189,26 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -165,17 +220,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -488,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -500,9 +562,11 @@
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="10" max="10" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,8 +591,17 @@
       <c r="H1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -547,8 +620,17 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -567,8 +649,17 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -587,8 +678,17 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -607,8 +707,17 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -627,8 +736,17 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -647,8 +765,17 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -673,8 +800,17 @@
       <c r="H8">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -699,8 +835,17 @@
       <c r="H9">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -725,8 +870,17 @@
       <c r="H10">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -751,8 +905,17 @@
       <c r="H11">
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -768,8 +931,17 @@
       <c r="F12">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -783,16 +955,235 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>300</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>46</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="1">
+        <v>300</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>73</v>
+      </c>
+      <c r="C15" s="1">
+        <v>400</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="1">
+        <v>300</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>88</v>
+      </c>
+      <c r="C16" s="1">
+        <v>300</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1">
+        <v>200</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>200</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1">
+        <v>300</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9008</v>
+      </c>
+      <c r="C18" s="1">
+        <v>200</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="1">
+        <v>300</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>9010</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19">
+        <v>300</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
